--- a/meta/8-3-1-2.xlsx
+++ b/meta/8-3-1-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\Метаданные для национальных показателей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32587C8B-12DD-4602-A71C-CD99F671E287}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НАЦИОН." sheetId="1" r:id="rId1"/>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,11 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -300,9 +298,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -312,10 +307,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,196 +594,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.7890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.47265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="52" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="334.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2" ht="334.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="279.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="279.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="39" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="25.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
